--- a/StructureDefinition-profile-Ingredient.xlsx
+++ b/StructureDefinition-profile-Ingredient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.717176-06:00</t>
+    <t>2026-02-09T22:05:43.1649663-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-Ingredient.xlsx
+++ b/StructureDefinition-profile-Ingredient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1649663-06:00</t>
+    <t>2026-02-17T14:42:26.8307069-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-Ingredient.xlsx
+++ b/StructureDefinition-profile-Ingredient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8307069-06:00</t>
+    <t>2026-02-20T11:59:20.8528211-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Basic|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Basic</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -447,7 +447,7 @@
     <t>Ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Ingredient|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Ingredient}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-Ingredient.xlsx
+++ b/StructureDefinition-profile-Ingredient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8528211-06:00</t>
+    <t>2026-02-21T13:36:54.2560136-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Basic</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Basic|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -447,7 +447,7 @@
     <t>Ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Ingredient}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Ingredient|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
